--- a/src/test/resources/testdata/LoginData.xlsx
+++ b/src/test/resources/testdata/LoginData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18750" windowHeight="5150"/>
+    <workbookView windowWidth="19200" windowHeight="7280"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
@@ -28,24 +28,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>username</t>
   </si>
   <si>
     <t>password</t>
-  </si>
-  <si>
-    <t>data_type</t>
-  </si>
-  <si>
-    <t>atlas.supportacc.ltd</t>
-  </si>
-  <si>
-    <t>Atlas</t>
-  </si>
-  <si>
-    <t>invalid</t>
   </si>
   <si>
     <t>atlas.support@acc.ltd</t>
@@ -54,7 +42,10 @@
     <t>Atlas@123</t>
   </si>
   <si>
-    <t>valid</t>
+    <t>atlas.supportacc.ltd</t>
+  </si>
+  <si>
+    <t>Atlas</t>
   </si>
   <si>
     <t>atlas.support@acc.ltd.</t>
@@ -703,7 +694,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -1228,13 +1219,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A3" sqref="$A3:$XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="35.5454545454545" customWidth="1"/>
     <col min="2" max="2" width="30.3636363636364" customWidth="1"/>
@@ -1248,67 +1239,19 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="atlas.supportacc.ltd" tooltip="mailto:atlas.support@acc.ltd"/>
-    <hyperlink ref="A4" r:id="rId2" display="atlas.support@acc.ltd." tooltip="mailto:atlas.support@acc.ltd."/>
-    <hyperlink ref="A5" r:id="rId1" display="atlas.support@acc.ltd" tooltip="mailto:atlas.support@acc.ltd"/>
-    <hyperlink ref="A3" r:id="rId1" display="atlas.support@acc.ltd" tooltip="mailto:atlas.support@acc.ltd"/>
+    <hyperlink ref="A2" r:id="rId1" display="atlas.support@acc.ltd" tooltip="mailto:atlas.support@acc.ltd"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1332,38 +1275,38 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
